--- a/files/Financial_Report_Q3_2024.xlsx
+++ b/files/Financial_Report_Q3_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fmotzo/Esercizi Master/advanced-rag/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA416729-4B73-6749-B4E9-812D2AB0525F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB433F6-062B-E148-885A-09C40DC01CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="780" windowWidth="31580" windowHeight="22600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,10 +541,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -642,7 +645,7 @@
         <v>240000</v>
       </c>
       <c r="D6">
-        <v>-2.5</v>
+        <v>-25</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
